--- a/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
+++ b/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\CHECK SHEETS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40ABDD4-BBF2-40A5-8698-F897867D3E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>MIMXRT1064 MCU Module   - FOOTPRINTS CHECK</t>
   </si>
@@ -118,18 +127,12 @@
     <t>IS25WP064A-JBLE</t>
   </si>
   <si>
-    <t>SDINBDG4-8G-XI1</t>
-  </si>
-  <si>
     <t>POWER</t>
   </si>
   <si>
     <t>SY8089AAAC</t>
   </si>
   <si>
-    <t>SMD0805P020TF</t>
-  </si>
-  <si>
     <t>UM805RE</t>
   </si>
   <si>
@@ -140,53 +143,84 @@
   </si>
   <si>
     <t>X201232768KJD2SI</t>
+  </si>
+  <si>
+    <t>CQ02WGF1501TCE</t>
+  </si>
+  <si>
+    <t>0402WGF2202TCE</t>
+  </si>
+  <si>
+    <t>0402WGJ0225TCE</t>
+  </si>
+  <si>
+    <t>UM803RS</t>
+  </si>
+  <si>
+    <t>RB521S30_R1_00001</t>
+  </si>
+  <si>
+    <t>IRLML6401</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Lora"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Lora"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Lora"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lora"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Lora"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000080"/>
       <name val="Lora"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lora"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -236,41 +270,32 @@
         <bgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF34A853"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
-    <border/>
+  <borders count="10">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -279,107 +304,168 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -569,384 +655,389 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.25"/>
-    <col customWidth="1" min="2" max="2" width="23.63"/>
-    <col customWidth="1" min="3" max="3" width="17.0"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
-    <col customWidth="1" min="5" max="5" width="16.63"/>
-    <col customWidth="1" min="6" max="6" width="16.38"/>
-    <col customWidth="1" min="7" max="7" width="16.0"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29">
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="15" t="s">
-        <v>37</v>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -955,72 +1046,116 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A37" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
+++ b/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\CHECK SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40ABDD4-BBF2-40A5-8698-F897867D3E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A001BB-B690-4402-A982-58146E74110F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
       <name val="Lora"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,20 +272,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF34A853"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF34A853"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,26 +439,32 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +686,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -684,16 +702,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -717,18 +735,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
@@ -739,18 +757,18 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5"/>
@@ -761,7 +779,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5"/>
@@ -772,18 +790,18 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5"/>
@@ -794,7 +812,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5"/>
@@ -805,7 +823,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="5"/>
@@ -816,26 +834,26 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
@@ -948,15 +966,15 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -981,15 +999,15 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
@@ -1003,18 +1021,18 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="9"/>
@@ -1025,7 +1043,7 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="9"/>
@@ -1036,7 +1054,7 @@
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="9"/>
@@ -1047,37 +1065,37 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
@@ -1091,37 +1109,37 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">

--- a/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
+++ b/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\CHECK SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A001BB-B690-4402-A982-58146E74110F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C1D03C-9090-450F-8620-5F89F6ADB6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>MIMXRT1064 MCU Module   - FOOTPRINTS CHECK</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>IRLML6401</t>
+  </si>
+  <si>
+    <t>0603WAF2200T5E</t>
+  </si>
+  <si>
+    <t>MLG1005S10NHT000</t>
+  </si>
+  <si>
+    <t>TPS79333DBVR</t>
   </si>
 </sst>
 </file>
@@ -215,7 +224,7 @@
       <name val="Lora"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +307,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFBBC04"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -424,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,15 +464,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -465,6 +477,22 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,10 +711,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -702,14 +730,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="13">
       <c r="A2" s="2" t="s">
@@ -735,18 +763,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
@@ -757,30 +785,30 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>11</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -790,30 +818,30 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="20" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>13</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -823,8 +851,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>14</v>
+      <c r="A11" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -834,41 +862,41 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -878,8 +906,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
+      <c r="A16" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -889,8 +917,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
+      <c r="A17" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -900,8 +928,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>20</v>
+      <c r="A18" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -911,8 +939,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>21</v>
+      <c r="A19" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -922,8 +950,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
+      <c r="A20" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -933,8 +961,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>23</v>
+      <c r="A21" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -944,8 +972,8 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>24</v>
+      <c r="A22" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -955,8 +983,8 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>25</v>
+      <c r="A23" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -966,52 +994,52 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1021,41 +1049,41 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>34</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1065,8 +1093,8 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="30" t="s">
-        <v>44</v>
+      <c r="A33" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1076,85 +1104,85 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A36" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="8" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="11" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" s="10" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1163,16 +1191,49 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
+++ b/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\CHECK SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C1D03C-9090-450F-8620-5F89F6ADB6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F66F3D-2A62-4E11-8CC8-C19BC128EA1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,6 +477,13 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -486,13 +493,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,11 +713,11 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" customWidth="1"/>
@@ -726,18 +726,19 @@
     <col min="5" max="5" width="16.6328125" customWidth="1"/>
     <col min="6" max="6" width="16.36328125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="16384" width="12.6328125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="13">
       <c r="A2" s="2" t="s">
@@ -763,15 +764,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="15" t="s">
@@ -785,7 +786,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="5"/>
@@ -884,15 +885,15 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
@@ -1005,26 +1006,26 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
@@ -1049,15 +1050,15 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
@@ -1071,15 +1072,15 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="24" t="s">
@@ -1137,15 +1138,15 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
@@ -1159,7 +1160,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="5"/>
@@ -1192,15 +1193,15 @@
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">

--- a/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
+++ b/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\CHECK SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F66F3D-2A62-4E11-8CC8-C19BC128EA1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AA89AB-ACD9-4D3F-9F97-41D671C70676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -186,42 +186,44 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Posterama"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Lora"/>
+      <name val="Posterama"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Posterama"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Posterama"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Lora"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Lora"/>
+      <name val="Posterama"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Lora"/>
+      <name val="Posterama"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000080"/>
-      <name val="Lora"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lora"/>
+      <name val="Posterama"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -445,54 +447,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,517 +716,517 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="16384" width="12.6328125" hidden="1"/>
+    <col min="1" max="1" width="24.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="12.6328125" style="5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" ht="13">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="30" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="26" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="30" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="30" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="24" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="22" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="24" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="23" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="21" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="30" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="27" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="11" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="10" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A42" s="30" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A44" s="6" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1237,5 +1240,6 @@
     <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
+++ b/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\CHECK SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1630E6E-67A1-43FB-A1D1-0C878EB58AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFEA5A5-80F1-4FE4-A29E-33E1EB29AD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,7 +229,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,12 +332,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF34A853"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -366,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -404,7 +398,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -629,10 +622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD45"/>
+  <dimension ref="A1:XFD51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -649,14 +642,14 @@
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -682,15 +675,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -803,15 +796,15 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
@@ -924,15 +917,15 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:16384" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:16384" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -50110,15 +50103,15 @@
       </c>
     </row>
     <row r="30" spans="1:16384" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:16384" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
@@ -50132,15 +50125,15 @@
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:16384" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
@@ -50198,26 +50191,26 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -50253,18 +50246,18 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="26"/>
@@ -50285,6 +50278,12 @@
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
     </row>
+    <row r="46" spans="1:7" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:7" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A32:G32"/>

--- a/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
+++ b/CHECK SHEETS/MIMXRT1064 MCU Module - FOOTPRINTS CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\CHECK SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AA1745-C7DB-40E6-A0D0-877944B645F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCC9C5-D103-4C4E-8646-3B9E12ED7465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -413,6 +413,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,8 +637,8 @@
   </sheetPr>
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -974,12 +977,12 @@
       <c r="A29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="9" t="s">
         <v>48</v>
       </c>
